--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gamgamms\OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB4594E-EAF7-43E4-9126-701894DEA67F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C92AA-7D31-49E3-9C6B-72538FD89665}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" xr2:uid="{2879F24A-CF68-48E3-BE9B-F98984403C1C}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>NUMBER</t>
   </si>
@@ -92,10 +89,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF2D633-CE34-4626-B449-215FC7E7C8FB}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{1B0A6935-D272-4411-AB1A-0D54D2616F7E}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{058D6255-83AC-49A9-9AD0-B25094268880}" name="ID"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF2D633-CE34-4626-B449-215FC7E7C8FB}" name="Table1" displayName="Table1" ref="A1:A21" totalsRowShown="0">
+  <autoFilter ref="A1:A21" xr:uid="{1B0A6935-D272-4411-AB1A-0D54D2616F7E}"/>
+  <tableColumns count="1">
     <tableColumn id="2" xr3:uid="{54BA42B6-F178-4449-B104-286C93B2D01B}" name="NUMBER">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
@@ -401,203 +397,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165225BC-9591-45E4-A28E-CAB6AD96FE37}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.90006752719640348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.81326943002086927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RAND()</f>
-        <v>0.77807722771221188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f t="shared" ref="A3:A21" ca="1" si="0">RAND()</f>
+        <v>0.41783160900612404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82079405393247729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12063359176864175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45384254380179767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24258316700974503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3419911652921942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65071435631458219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83304505959225428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86854979168688295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39307207919041509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12861999579350414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4631345480250761E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9931112186041191E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32146098589239513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83020984761811878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2609927255741471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33012776781520725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12681172696552623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7545258657170657E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14477077872684385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98363227625836702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51141927634355189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15287699887766115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52586668207511422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23009868826891455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23659111588706905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36277686549946719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70692662938957729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43495759149601387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2014832730990348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5076397256111862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3811417831643803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92748037573107911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65504545971131156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15976894312570389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30320543770527986</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21331808112311834</v>
       </c>
     </row>
   </sheetData>
